--- a/biology/Médecine/Spéculum/Spéculum.xlsx
+++ b/biology/Médecine/Spéculum/Spéculum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sp%C3%A9culum</t>
+          <t>Spéculum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un spéculum est un outil médical — généralement en métal ou à usage unique en plastique — permettant d'explorer une cavité corporelle par l'écartement des parois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sp%C3%A9culum</t>
+          <t>Spéculum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vient du latin speculum, « miroir », car il permet de voir (ainsi, un miroir est dit spéculaire).
 Instrument permettant d'agrandir et de maintenir béantes certaines cavités naturelles afin de pouvoir mieux en examiner l'intérieur.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sp%C3%A9culum</t>
+          <t>Spéculum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chez les Grecs et les Romains, le spéculum est un miroir fait d'un métal blanc formé d'un mélange de cuivre et d'étain, puis d'argent (qui est un métal moins cassant que cet alliage). Donc, dans l'Antiquité, le spéculum est un miroir.
-Les spéculum vaginaux et anaux étaient utilisés par les Grecs et les Romains[1], et des spéculum ont été trouvés à Pompeii[2].
+Les spéculum vaginaux et anaux étaient utilisés par les Grecs et les Romains, et des spéculum ont été trouvés à Pompeii.
 Les spéculums au temps des Romains :
 Speculum matricis de Pompéi et Herculanum
 Speculum uteri : Pompéi
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sp%C3%A9culum</t>
+          <t>Spéculum</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Exemples de différents types de spéculum</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le spéculum vaginal
 Le spéculum nasal
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sp%C3%A9culum</t>
+          <t>Spéculum</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,19 +642,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Utilisation vaginale
-Pour les gynécologues obstétriciens, il s'agit d'un instrument qui permet d'élargir la cavité vaginale par l'écartement des parois du vagin, pour pouvoir visualiser et examiner le col utérin et le vagin et de donner un accès au canal cervical et à la cavité utérine pour pratiquer de multiples examens et interventions chirurgicales.
-Utilisation auriculaire
-Il permet d'inspecter le conduit auditif externe et le tympan (membrane fibreuse se trouvant au fond du conduit auditif externe de l'oreille). Il permet de diagnostiquer l'existence ou non d'un bouchon, de la présence d'une lésion de la muqueuse (exemple : plaque d'eczéma). Il permet donc de diagnostiquer un problème lié à l’audition mais aussi à l’entretien du conduit auditif du patient.
-Utilisation rectale
-Il permet d'observer, en se retirant, l'ensemble de la muqueuse rectale depuis l'angle du sigmoïde en haut jusqu'à l'anus. Il met en évidence la quasi-totalité des maladies du rectum et de l'anus.
-Utilisation nasale
-Cet instrument permet l’extraction de corps étrangers ou de faciliter la cautérisation en cas de saignement.
-Il permet d'observer la muqueuse des fosses nasales, la cloison et surtout la tache vasculaire, carrefour important et fragile de vaisseaux.
-Exemples d’usage
-La mise en évidence des lésions vaginales et cervicales macroscopiques, infectieuses, inflammatoires, traumatiques ou tumorales.
-La détermination de l'origine d'un saignement génital.
-La réalisation des prélèvements bactériologiques, parasitologiques et virologiques vaginaux et cervico-utérins.</t>
+          <t>Utilisation vaginale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les gynécologues obstétriciens, il s'agit d'un instrument qui permet d'élargir la cavité vaginale par l'écartement des parois du vagin, pour pouvoir visualiser et examiner le col utérin et le vagin et de donner un accès au canal cervical et à la cavité utérine pour pratiquer de multiples examens et interventions chirurgicales.
+</t>
         </is>
       </c>
     </row>
@@ -646,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sp%C3%A9culum</t>
+          <t>Spéculum</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,19 +674,209 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Utilisation auriculaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il permet d'inspecter le conduit auditif externe et le tympan (membrane fibreuse se trouvant au fond du conduit auditif externe de l'oreille). Il permet de diagnostiquer l'existence ou non d'un bouchon, de la présence d'une lésion de la muqueuse (exemple : plaque d'eczéma). Il permet donc de diagnostiquer un problème lié à l’audition mais aussi à l’entretien du conduit auditif du patient.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Spéculum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sp%C3%A9culum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Utilisation rectale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il permet d'observer, en se retirant, l'ensemble de la muqueuse rectale depuis l'angle du sigmoïde en haut jusqu'à l'anus. Il met en évidence la quasi-totalité des maladies du rectum et de l'anus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Spéculum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sp%C3%A9culum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Utilisation nasale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet instrument permet l’extraction de corps étrangers ou de faciliter la cautérisation en cas de saignement.
+Il permet d'observer la muqueuse des fosses nasales, la cloison et surtout la tache vasculaire, carrefour important et fragile de vaisseaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Spéculum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sp%C3%A9culum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Exemples d’usage</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La mise en évidence des lésions vaginales et cervicales macroscopiques, infectieuses, inflammatoires, traumatiques ou tumorales.
+La détermination de l'origine d'un saignement génital.
+La réalisation des prélèvements bactériologiques, parasitologiques et virologiques vaginaux et cervico-utérins.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Spéculum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sp%C3%A9culum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Méthode de pose du spéculum vaginal</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Installation du médecin et du patient
-Emmener la patiente dans la salle où se déroulera l'examen.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Installation du médecin et du patient</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmener la patiente dans la salle où se déroulera l'examen.
 Lui indiquer comment se déshabiller : déshabillage partiel avec respect au maximum de la pudeur de la patiente. Retirer seulement le bas.
 Installation de la patiente en position gynécologique et du professionnel de la santé.
-Réaliser la pose du spéculum
-Inspection des organes génitaux externes : clitoris, petites et grandes lèvres, méat urinaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Spéculum</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sp%C3%A9culum</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Méthode de pose du spéculum vaginal</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Réaliser la pose du spéculum</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Inspection des organes génitaux externes : clitoris, petites et grandes lèvres, méat urinaire.
 Introduction du spéculum préalablement lubrifié, après accord de la patiente:
-Spéculum en vue d'un examen par frottis (on ne considère plus que l'utilisation de lubrifiant interfère avec les tests de dépistage)[3]
+Spéculum en vue d'un examen par frottis (on ne considère plus que l'utilisation de lubrifiant interfère avec les tests de dépistage)
 Introduction du spéculum parallèlement aux grandes lèvres, puis rotation à 90° à mi chemin avant d'atteindre le col de l'utérus
 Ou directement perpendiculairement, en écartant les grandes lèvres entre l'index et le pouce
 Dès que le col est aperçu, on achève l'introduction en augmentant doucement l'ouverture des valves. Ces dernières seront placées au niveau des culs-de-sac vaginaux antérieur et postérieur.</t>
